--- a/forms/contact/district_hospital-create.xlsx
+++ b/forms/contact/district_hospital-create.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="wji0hm1bWbHMa50/xr0iC8D0akSJ+kvfQEMnAeQP7Io="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="371">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +98,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -113,19 +116,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
+    <t>Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -134,28 +137,28 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one contact</t>
+    <t>select_one contact</t>
   </si>
   <si>
     <t>create_new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Set the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weka mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact primaire</t>
+    <t>Set the Primary Contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t>Ditetapkan Sebagai Kontak Utama</t>
+  </si>
+  <si>
+    <t>Weka mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t>Contact primaire</t>
   </si>
   <si>
     <t>yes</t>
@@ -170,19 +173,19 @@
     <t>select_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisisser le contact primaire</t>
+    <t>Select the Primary Contact</t>
+  </si>
+  <si>
+    <t>Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t>Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisisser le contact primaire</t>
   </si>
   <si>
     <t>selected(${create_new_person},'old_person')</t>
@@ -200,16 +203,16 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one translate_name_label</t>
+    <t>coalesce(../../contact/name, ../name)</t>
+  </si>
+  <si>
+    <t>select_one translate_name_label</t>
   </si>
   <si>
     <t>custom_place_name_label_translator</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
+    <t>selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
   </si>
   <si>
     <t>"name"</t>
@@ -227,31 +230,31 @@
     <t>${custom_place_name_label}</t>
   </si>
   <si>
-    <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>Standalone question only if no contact is selected, so show label accordingly</t>
+  </si>
+  <si>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the name of this place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'endroit</t>
+    <t>Enter the name of this place</t>
+  </si>
+  <si>
+    <t>इस स्थान का नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t>Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t>Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t>यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t>Nom de l'endroit</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -263,7 +266,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one generated_name</t>
+    <t>select_one generated_name</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -278,19 +281,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">New Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नया व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orang Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtu Mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle personne</t>
+    <t>New Person</t>
+  </si>
+  <si>
+    <t>नया व्यक्ति</t>
+  </si>
+  <si>
+    <t>Orang Baru</t>
+  </si>
+  <si>
+    <t>Mtu Mpya</t>
+  </si>
+  <si>
+    <t>Nouvelle personne</t>
   </si>
   <si>
     <t>selected(${create_new_person},'new_person')</t>
@@ -305,7 +308,7 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name</t>
+    <t>Full Name</t>
   </si>
   <si>
     <t>नाम</t>
@@ -326,19 +329,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short name</t>
+    <t>Short name</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">string-length(.) &lt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short name can not be more than 10 characters long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
+    <t>string-length(.) &lt;= 10</t>
+  </si>
+  <si>
+    <t>Short name can not be more than 10 characters long.</t>
+  </si>
+  <si>
+    <t>Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -368,13 +371,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt;= now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>. &lt;= now()</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>note</t>
@@ -398,10 +401,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -410,13 +413,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -434,13 +437,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
+    <t>add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -454,7 +457,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB Approx: ${dob_approx}
+    <t>DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -465,49 +468,49 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya Simi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फाेन नम्बर</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya Simi</t>
+  </si>
+  <si>
+    <t>फाेन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+    <t>Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
   </si>
   <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t xml:space="preserve">बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>बैकल्पिक फाेन नम्बर</t>
+  </si>
+  <si>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -519,7 +522,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -528,7 +531,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -543,7 +546,7 @@
     <t>Peran</t>
   </si>
   <si>
-    <t xml:space="preserve">Namba ya simu Nyingine</t>
+    <t>Namba ya simu Nyingine</t>
   </si>
   <si>
     <t>भुमिका</t>
@@ -555,46 +558,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua vingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua vingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
     <t>Specifier</t>
   </si>
   <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहिरि ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho cha nje</t>
+  </si>
+  <si>
+    <t>बाहिरि ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -636,28 +639,28 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no_generated_name</t>
+    <t>select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
+    <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
     <t>not(selected(${create_new_person},'none'))</t>
@@ -669,19 +672,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
+    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
+  </si>
+  <si>
+    <t>Namba ya nje</t>
+  </si>
+  <si>
+    <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -777,64 +780,64 @@
     <t>new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buat orang baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाउनुस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle personne</t>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t>Buat orang baru</t>
+  </si>
+  <si>
+    <t>Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाउनुस</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an existing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selectiionner une personne existant</t>
+    <t>Select an existing person</t>
+  </si>
+  <si>
+    <t>मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t>Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t>व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Selectiionner une personne existant</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Skip this step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्टेप को छोड़ दें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewati langkah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka hatua ii</t>
+    <t>Skip this step</t>
+  </si>
+  <si>
+    <t>इस स्टेप को छोड़ दें</t>
+  </si>
+  <si>
+    <t>Lewati langkah ini</t>
+  </si>
+  <si>
+    <t>Ruka hatua ii</t>
   </si>
   <si>
     <t xml:space="preserve">एख </t>
   </si>
   <si>
-    <t xml:space="preserve">Sauter cette section</t>
+    <t>Sauter cette section</t>
   </si>
   <si>
     <t>select_dob_method</t>
@@ -843,7 +846,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth unknown</t>
+    <t>Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -855,16 +858,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -873,22 +876,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>nurse</t>
@@ -912,22 +915,22 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff médical</t>
+    <t>Facility Manager</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t>Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t>Meneja wa Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य सस्था प्रमुख</t>
+  </si>
+  <si>
+    <t>Staff médical</t>
   </si>
   <si>
     <t>patient</t>
@@ -972,28 +975,28 @@
     <t>हो</t>
   </si>
   <si>
-    <t xml:space="preserve">No, I want to name it manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन, म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
+    <t>No, I want to name it manually</t>
+  </si>
+  <si>
+    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t>Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t>Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t>होइन, म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t>Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1017,19 +1020,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1050,58 +1053,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का ज़िला</t>
+    <t>${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t>${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
+    <t>WIlaya ya  ${contact_name}</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}को जिल्ला </t>
   </si>
   <si>
-    <t xml:space="preserve">District de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
+    <t>District de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t>${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
+    <t>Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t>${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone de ${contact_name}</t>
+    <t>Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t>Zone de ${contact_name}</t>
   </si>
   <si>
     <t>translate_name_label</t>
@@ -1122,7 +1125,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">New PLACE_NAME</t>
+    <t>New Health Facility</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:create</t>
@@ -1137,29 +1140,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.000000"/>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1167,183 +1170,177 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
+        <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFD0E0E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="65"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor indexed="55"/>
+        <bgColor rgb="FF6FA8DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="32">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -1367,77 +1364,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1449,274 +1388,90 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
-  <a:themeElements>
-    <a:clrScheme name="">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill/>
-        <a:solidFill/>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1727,57 +1482,84 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="34"/>
-    <col customWidth="1" min="2" max="2" style="0" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="47.859999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="33.43"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.43"/>
-    <col customWidth="1" min="6" max="6" style="0" width="37.289999999999999"/>
-    <col customWidth="1" min="7" max="7" style="0" width="31.289999999999999"/>
-    <col customWidth="1" min="8" max="8" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="9" max="9" style="0" width="16.710000000000001"/>
-    <col customWidth="1" min="10" max="10" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="11" max="11" style="0" width="51.43"/>
-    <col customWidth="1" min="12" max="13" style="0" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="14" style="0" width="25.300000000000001"/>
-    <col customWidth="1" min="15" max="15" style="0" width="46.289999999999999"/>
-    <col customWidth="1" min="16" max="16" style="0" width="68.849999999999994"/>
-    <col customWidth="1" min="17" max="17" style="0" width="9.4299999999999997"/>
-    <col customWidth="1" min="18" max="18" style="0" width="33.43"/>
-    <col customWidth="1" min="19" max="19" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="20" max="23" style="0" width="13.57"/>
-    <col customWidth="1" min="24" max="24" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="25" max="25" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="26" max="26" style="0" width="35.850000000000001"/>
-    <col customWidth="1" min="27" max="36" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="37" max="38" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="39" max="44" style="0" width="17.289999999999999"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="2" max="2" width="22.71"/>
+    <col customWidth="1" min="3" max="3" width="47.86"/>
+    <col customWidth="1" min="4" max="4" width="33.43"/>
+    <col customWidth="1" min="5" max="5" width="27.43"/>
+    <col customWidth="1" min="6" max="6" width="37.29"/>
+    <col customWidth="1" min="7" max="7" width="31.29"/>
+    <col customWidth="1" min="8" max="8" width="8.14"/>
+    <col customWidth="1" min="9" max="9" width="16.71"/>
+    <col customWidth="1" min="10" max="10" width="8.14"/>
+    <col customWidth="1" min="11" max="11" width="51.43"/>
+    <col customWidth="1" min="12" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="25.29"/>
+    <col customWidth="1" min="15" max="15" width="46.29"/>
+    <col customWidth="1" min="16" max="16" width="68.86"/>
+    <col customWidth="1" min="17" max="17" width="9.43"/>
+    <col customWidth="1" min="18" max="18" width="33.43"/>
+    <col customWidth="1" min="19" max="19" width="36.29"/>
+    <col customWidth="1" min="20" max="23" width="13.57"/>
+    <col customWidth="1" min="24" max="24" width="7.71"/>
+    <col customWidth="1" min="25" max="25" width="8.71"/>
+    <col customWidth="1" min="26" max="26" width="35.86"/>
+    <col customWidth="1" min="27" max="36" width="7.71"/>
+    <col customWidth="1" min="37" max="38" width="15.14"/>
+    <col customWidth="1" min="39" max="44" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1899,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10">
+      <c r="K2" s="10" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1937,7 +1719,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" ht="15">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +1973,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7" ht="15">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2307,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" ht="15">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -3241,7 +3023,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3305,7 +3087,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3443,7 +3225,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="19" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3480,7 +3262,7 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3534,7 +3316,7 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3589,20 +3371,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3665,7 +3447,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4003,7 +3785,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="20" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4096,7 +3878,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4224,8 +4006,8 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
-        <f t="shared" ref="N42:N43" si="0">TRUE()</f>
+      <c r="N42" s="21" t="b">
+        <f t="shared" ref="N42:N43" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O42" s="16" t="s">
@@ -4293,8 +4075,8 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
-        <f t="shared" si="0"/>
+      <c r="N43" s="21" t="b">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O43" s="16" t="s">
@@ -5069,7 +4851,7 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -5133,7 +4915,7 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -5297,7 +5079,7 @@
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
+      <c r="O60" s="20"/>
       <c r="P60" s="16" t="s">
         <v>216</v>
       </c>
@@ -5876,46 +5658,974 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
-    <col customWidth="1" min="3" max="3" style="0" width="29"/>
-    <col customWidth="1" min="4" max="4" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.300000000000001"/>
-    <col customWidth="1" min="6" max="7" style="0" width="24.710000000000001"/>
-    <col customWidth="1" min="8" max="8" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="9" max="9" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="10" max="13" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="1" max="1" width="21.14"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
+    <col customWidth="1" min="4" max="4" width="36.29"/>
+    <col customWidth="1" min="5" max="5" width="27.29"/>
+    <col customWidth="1" min="6" max="7" width="24.71"/>
+    <col customWidth="1" min="8" max="8" width="7.71"/>
+    <col customWidth="1" min="9" max="9" width="14.29"/>
+    <col customWidth="1" min="10" max="13" width="7.71"/>
+    <col customWidth="1" min="14" max="26" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,29 +6665,29 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="8"/>
@@ -5999,29 +6709,29 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>235</v>
       </c>
       <c r="J3" s="8"/>
@@ -6043,29 +6753,29 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="8"/>
@@ -6087,29 +6797,29 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
         <v>250</v>
       </c>
       <c r="J5" s="8"/>
@@ -6131,29 +6841,29 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
         <v>257</v>
       </c>
       <c r="J6" s="8"/>
@@ -6175,29 +6885,29 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>264</v>
       </c>
       <c r="J7" s="8"/>
@@ -6219,29 +6929,29 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>271</v>
       </c>
       <c r="J8" s="8"/>
@@ -6266,18 +6976,18 @@
       <c r="A9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6300,26 +7010,26 @@
       <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="8"/>
@@ -6344,26 +7054,26 @@
       <c r="A11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>289</v>
       </c>
       <c r="J11" s="8"/>
@@ -6388,26 +7098,26 @@
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>295</v>
       </c>
       <c r="J12" s="8"/>
@@ -6432,26 +7142,26 @@
       <c r="A13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
         <v>302</v>
       </c>
       <c r="J13" s="8"/>
@@ -6482,20 +7192,20 @@
       <c r="C14" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
         <v>304</v>
       </c>
       <c r="J14" s="8"/>
@@ -6520,26 +7230,26 @@
       <c r="A15" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="8"/>
@@ -6561,29 +7271,29 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>228</v>
       </c>
       <c r="J16" s="8"/>
@@ -6605,29 +7315,29 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
         <v>322</v>
       </c>
       <c r="J17" s="8"/>
@@ -6652,26 +7362,26 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
         <v>329</v>
       </c>
       <c r="J18" s="8"/>
@@ -6696,26 +7406,26 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="16" t="s">
         <v>336</v>
       </c>
       <c r="J19" s="8"/>
@@ -6740,26 +7450,26 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
         <v>342</v>
       </c>
       <c r="J20" s="8"/>
@@ -6784,26 +7494,26 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="8"/>
@@ -6828,26 +7538,26 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J22" s="8"/>
@@ -6872,26 +7582,26 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
         <v>360</v>
       </c>
       <c r="J23" s="8"/>
@@ -6913,29 +7623,29 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="19" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="16" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -6956,36 +7666,1008 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="28.140000000000001"/>
-    <col customWidth="1" min="2" max="2" style="0" width="12.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="19"/>
-    <col customWidth="1" min="4" max="4" style="0" width="5.7000000000000002"/>
-    <col customWidth="1" min="5" max="5" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="6" max="6" style="0" width="34"/>
-    <col customWidth="1" min="7" max="14" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="15" max="25" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="26" max="26" style="0" width="17.289999999999999"/>
+    <col customWidth="1" min="1" max="1" width="28.14"/>
+    <col customWidth="1" min="2" max="2" width="12.71"/>
+    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="4" max="4" width="5.71"/>
+    <col customWidth="1" min="5" max="5" width="14.29"/>
+    <col customWidth="1" min="6" max="6" width="34.0"/>
+    <col customWidth="1" min="7" max="14" width="7.71"/>
+    <col customWidth="1" min="15" max="25" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7026,15 +8708,15 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+      <c r="C2" s="31" t="str">
+        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2023-06-14_04-11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>369</v>
@@ -12949,790 +14631,790 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>